--- a/NitaraWebApplication/src/main/java/com/nitaraweb/testdata/TestData.xlsx
+++ b/NitaraWebApplication/src/main/java/com/nitaraweb/testdata/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebApplication\NitaraWebApplication\src\main\java\com\nitaraweb\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GormalOne LLP\NitaraWebAutomation-main\NitaraWebApplication\src\main\java\com\nitaraweb\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49011122-FA91-4EA2-8504-9B56C0D025B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1840980B-1A84-4464-AB36-0DC37954C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="signIn" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>testcase</t>
   </si>
@@ -84,9 +82,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,19 +121,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,20 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75515D6-C395-437A-8F7B-12E49787F40E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,37 +469,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3344668899</v>
+      </c>
+      <c r="C4" s="5">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{60599396-15D7-498A-93EA-53BDA7AB2709}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F3372D6B-6A7E-4F01-B8D4-DAA30864C2BA}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{212EB823-69B6-411D-BF3B-9794B725F409}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{FCD689AA-9411-4C32-85DA-9F5FFC7A55A8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>